--- a/data/Birds.xlsx
+++ b/data/Birds.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmm/Documents/quant_methods/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31340" yWindow="1040" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="birds.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -78,7 +86,7 @@
     <t>Dist_to_Island</t>
   </si>
   <si>
-    <t>Dist_to_Equador</t>
+    <t>Dist_to_Ecuador</t>
   </si>
 </sst>
 </file>
@@ -122,6 +130,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,12 +463,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -475,7 +488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -515,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -535,7 +548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -555,7 +568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -575,7 +588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -595,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -615,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -635,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -655,7 +668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -675,7 +688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -695,7 +708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -715,7 +728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -735,7 +748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -757,10 +770,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>